--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6075" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656665AD-97CD-4CD6-BE74-12644D116F1B}"/>
+  <xr:revisionPtr revIDLastSave="6086" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B61F634-BAC9-4767-9B69-65F3E8E10E76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="18" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="18" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2019" sheetId="18" r:id="rId17"/>
     <sheet name="2020" sheetId="19" r:id="rId18"/>
     <sheet name="2021" sheetId="20" r:id="rId19"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId20"/>
-    <sheet name="YTD Wins-Losses" sheetId="21" r:id="rId21"/>
-    <sheet name="Winning Percentile Range" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId20"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="YTD Wins-Losses" sheetId="21" r:id="rId22"/>
+    <sheet name="Winning Percentile Range" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="955">
   <si>
     <t>YEAR</t>
   </si>
@@ -2919,6 +2920,9 @@
   </si>
   <si>
     <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
   </si>
 </sst>
 </file>
@@ -15477,7 +15481,7 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -16782,13 +16786,74 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0643E22-D5FD-4A90-856E-CC5870D1F4FF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319C28C-0EEA-4862-95BF-C791938968A5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6086" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B61F634-BAC9-4767-9B69-65F3E8E10E76}"/>
+  <xr:revisionPtr revIDLastSave="6095" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFB4AF5-FF68-47CA-B178-383CB9258E30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="18" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="955">
   <si>
     <t>YEAR</t>
   </si>
@@ -15481,7 +15481,7 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -16792,8 +16792,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16839,6 +16839,12 @@
       <c r="D2" t="s">
         <v>954</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16851,10 +16857,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16904,7 +16910,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F20" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
@@ -17287,57 +17293,78 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <f>SUM(B2:B20)</f>
-        <v>374</v>
-      </c>
-      <c r="C21" s="1">
-        <f>SUM(C2:C20)</f>
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="1">SUM(D2:D20)</f>
-        <v>660</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F21" s="9">
-        <f>(D21-E21)/D21</f>
-        <v>0.46969696969696972</v>
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8">
-        <f>AVERAGE(B2:B20)</f>
-        <v>19.684210526315791</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" ref="C22:E22" si="2">AVERAGE(C2:C20)</f>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="2"/>
-        <v>34.736842105263158</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="2"/>
-        <v>18.421052631578949</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>375</v>
+      </c>
+      <c r="C22" s="1">
+        <f>SUM(C2:C21)</f>
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>660</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(E2:E21)</f>
+        <v>351</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.46969696969696967</v>
+        <v>0.4681818181818182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8">
+        <f>AVERAGE(B2:B21)</f>
+        <v>18.75</v>
+      </c>
+      <c r="C23" s="8">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.65</v>
+      </c>
+      <c r="D23" s="8">
+        <f>AVERAGE(D2:D21)</f>
+        <v>33</v>
+      </c>
+      <c r="E23" s="8">
+        <f>AVERAGE(E2:E21)</f>
+        <v>17.55</v>
+      </c>
+      <c r="F23" s="9">
+        <f>(D23-E23)/D23</f>
+        <v>0.46818181818181814</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F21">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6095" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFB4AF5-FF68-47CA-B178-383CB9258E30}"/>
+  <xr:revisionPtr revIDLastSave="6154" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4979AF-8DCF-418D-A0AD-879B22372A97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="961">
   <si>
     <t>YEAR</t>
   </si>
@@ -2923,6 +2923,24 @@
   </si>
   <si>
     <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-3</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Anett Kontaveit (ESTONIA)</t>
   </si>
 </sst>
 </file>
@@ -15216,7 +15234,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -15481,8 +15499,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16790,20 +16808,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16844,6 +16862,150 @@
       </c>
       <c r="F2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>955</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>956</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>950</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>958</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>959</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>960</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -16859,8 +17021,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17297,20 +17459,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="e">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17319,7 +17481,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -17327,15 +17489,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.4681818181818182</v>
+        <v>0.4607250755287009</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17344,7 +17506,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>18.75</v>
+        <v>19.05</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -17352,15 +17514,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>17.55</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.46818181818181814</v>
+        <v>0.4607250755287009</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6154" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4979AF-8DCF-418D-A0AD-879B22372A97}"/>
+  <xr:revisionPtr revIDLastSave="6156" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A6879E-AAFB-4411-8081-738E955C4233}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="961">
   <si>
     <t>YEAR</t>
   </si>
@@ -16808,10 +16808,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17000,14 +17000,6 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>629</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -17022,7 +17014,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17459,7 +17451,7 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -17481,7 +17473,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -17506,7 +17498,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>19.05</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6156" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A6879E-AAFB-4411-8081-738E955C4233}"/>
+  <xr:revisionPtr revIDLastSave="6241" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89824B6-79AF-4E59-B237-9A3CA8BD3794}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5033" uniqueCount="975">
   <si>
     <t>YEAR</t>
   </si>
@@ -2941,6 +2941,48 @@
   </si>
   <si>
     <t>Anett Kontaveit (ESTONIA)</t>
+  </si>
+  <si>
+    <t>Diane Parry (FRANCE)</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-4</t>
+  </si>
+  <si>
+    <t>Océane Dodin (FRANCE)</t>
+  </si>
+  <si>
+    <t>FRENCH OPEN</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>7-6(2) 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-7(0) 7-6(5)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>Elsa Jacquemot (FRANCE)</t>
+  </si>
+  <si>
+    <t>Anastasia Gasanova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Kristina Mladenovic (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -15235,7 +15277,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15500,7 +15542,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16808,20 +16850,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16998,6 +17040,212 @@
       </c>
       <c r="F15" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>961</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>962</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>963</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>965</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>916</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>966</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>967</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>971</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>962</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>927</v>
+      </c>
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>972</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>973</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>871</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" t="s">
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -17013,8 +17261,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17451,20 +17699,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17473,23 +17721,23 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.4607250755287009</v>
+        <v>0.46348733233979134</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17498,23 +17746,23 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>33.1</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>17.850000000000001</v>
+        <v>18</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.4607250755287009</v>
+        <v>0.46348733233979134</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6241" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89824B6-79AF-4E59-B237-9A3CA8BD3794}"/>
+  <xr:revisionPtr revIDLastSave="6255" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF79325-7F8C-4A29-8214-60F15046F0C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5033" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="976">
   <si>
     <t>YEAR</t>
   </si>
@@ -2983,6 +2983,9 @@
   </si>
   <si>
     <t>Kristina Mladenovic (FRANCE)</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3068,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -3076,7 +3079,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -7541,8 +7543,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8686,8 +8688,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16850,10 +16852,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" activeCellId="9" sqref="E2 E4 E8 E10 E12:E13 E15 E17 E27 E31 E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17234,7 +17236,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>328</v>
       </c>
@@ -17246,6 +17248,40 @@
       </c>
       <c r="D33" t="s">
         <v>974</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>963</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>975</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -17699,20 +17735,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17721,7 +17757,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -17729,15 +17765,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.46348733233979134</v>
+        <v>0.46359583952451711</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17746,7 +17782,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>19.2</v>
+        <v>19.25</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -17754,15 +17790,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>33.549999999999997</v>
+        <v>33.65</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>18</v>
+        <v>18.05</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.46348733233979134</v>
+        <v>0.46359583952451705</v>
       </c>
     </row>
   </sheetData>
@@ -20798,7 +20834,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>383</v>
       </c>
       <c r="B31" t="s">
@@ -20994,7 +21030,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" t="s">
         <v>398</v>
       </c>
       <c r="B49" t="s">

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6337" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2237221E-C245-494A-8455-2AE800D5C134}"/>
+  <xr:revisionPtr revIDLastSave="6340" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C988844E-54A1-4060-A90E-C0C590C852C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="2020" sheetId="19" r:id="rId18"/>
     <sheet name="2021" sheetId="20" r:id="rId19"/>
     <sheet name="2022" sheetId="23" r:id="rId20"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="Stats" sheetId="1" r:id="rId21"/>
     <sheet name="Wins-Losses" sheetId="24" r:id="rId22"/>
     <sheet name="Winning Percentile Range" sheetId="25" r:id="rId23"/>
   </sheets>
@@ -3167,7 +3167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3188,7 +3188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3257,7 +3257,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
+              <c:f>Stats!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3335,7 +3335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3356,7 +3356,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3425,7 +3425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
+              <c:f>Stats!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3879,7 +3879,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3928,7 +3928,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3997,7 +3997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
+              <c:f>Stats!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5462,7 +5462,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C60B99F-912D-4166-AEED-E2FDA9498ABA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5519,7 +5519,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5546,10 +5546,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17262,7 +17258,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6343" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5ABFDB-1D2B-418E-BC56-FCE729178EE2}"/>
+  <xr:revisionPtr revIDLastSave="6345" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F072FD7-42C7-4F48-BBA7-DC006378D716}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -5855,7 +5855,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6163,7 +6163,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7515,7 +7515,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8660,7 +8660,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9833,7 +9833,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11097,7 +11097,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12439,7 +12439,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13326,7 +13326,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14391,7 +14391,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15244,7 +15244,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15509,7 +15509,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16299,7 +16299,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16820,7 +16820,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17263,7 +17263,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17789,7 +17789,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18396,7 +18396,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19152,7 +19152,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20449,7 +20449,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21516,7 +21516,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22401,7 +22401,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23275,7 +23275,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6350" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B3ED78-C692-4EB9-A346-73B7619FB37F}"/>
+  <xr:revisionPtr revIDLastSave="6402" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCBF2FCB-E383-49C2-A754-42D6F05259E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="24" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,11 @@
     <sheet name="2020" sheetId="19" r:id="rId18"/>
     <sheet name="2021" sheetId="20" r:id="rId19"/>
     <sheet name="2022" sheetId="23" r:id="rId20"/>
-    <sheet name="Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="24" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="25" r:id="rId23"/>
+    <sheet name="2023" sheetId="26" r:id="rId21"/>
+    <sheet name="2024" sheetId="27" r:id="rId22"/>
+    <sheet name="Stats" sheetId="1" r:id="rId23"/>
+    <sheet name="Wins-Losses" sheetId="28" r:id="rId24"/>
+    <sheet name="Winning Percentile Range" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="974">
   <si>
     <t>YEAR</t>
   </si>
@@ -2973,6 +2975,12 @@
   </si>
   <si>
     <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
   </si>
 </sst>
 </file>
@@ -3121,8 +3129,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Angelique Kerber (GERMANY): Wins-Losses</a:t>
+              <a:t>Angelique</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Kerber (GERMANY): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3188,10 +3201,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3252,15 +3265,21 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$21</c:f>
+              <c:f>Stats!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3321,12 +3340,18 @@
                 <c:pt idx="19">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-988B-41E4-9F8E-8E0B56FEB328}"/>
+              <c16:uniqueId val="{00000000-4763-4DD7-B1D4-605DC2826C1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3356,10 +3381,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3420,15 +3445,21 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$21</c:f>
+              <c:f>Stats!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3489,12 +3520,18 @@
                 <c:pt idx="19">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-988B-41E4-9F8E-8E0B56FEB328}"/>
+              <c16:uniqueId val="{00000001-4763-4DD7-B1D4-605DC2826C1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3508,11 +3545,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="841620032"/>
-        <c:axId val="841612960"/>
+        <c:axId val="908745296"/>
+        <c:axId val="705536304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="841620032"/>
+        <c:axId val="908745296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3610,7 +3647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841612960"/>
+        <c:crossAx val="705536304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3618,7 +3655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="841612960"/>
+        <c:axId val="705536304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,8 +3696,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> OF MATCHES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3724,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841620032"/>
+        <c:crossAx val="908745296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,8 +3876,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Angelique Kerber (GERMANY): Winning Percentile Range</a:t>
+              <a:t>Angelique</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Kerber (GERMANY): Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3928,10 +3975,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3992,15 +4039,21 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$21</c:f>
+              <c:f>Stats!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -4061,13 +4114,19 @@
                 <c:pt idx="19">
                   <c:v>0.15384615384615385</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8755-41EC-BF34-F3DB5EE221EC}"/>
+              <c16:uniqueId val="{00000000-D3FD-4199-93E8-6D886E3456B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4081,11 +4140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671739024"/>
-        <c:axId val="671763568"/>
+        <c:axId val="1002615664"/>
+        <c:axId val="791248480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="671739024"/>
+        <c:axId val="1002615664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671763568"/>
+        <c:crossAx val="791248480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4191,7 +4250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671763568"/>
+        <c:axId val="791248480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671739024"/>
+        <c:crossAx val="1002615664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5459,25 +5518,25 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C60B99F-912D-4166-AEED-E2FDA9498ABA}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA2DBEF8-2525-4163-893B-36F37CA7405A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37C125FC-2400-46CD-A3A4-B6B630A44532}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D5F08E02-9040-4923-967B-9EC84DD062B8}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -5486,13 +5545,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFF901F-8B10-11F4-CEF9-A84405AF5896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E399D28E-32EE-B206-F4C9-B5F7291EEF1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5519,13 +5578,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F7F4FC-BA6C-DF41-1105-F60E8C8921D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BE52BA-7A9C-9EC1-A361-09F3121F4FB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5548,10 +5607,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5589,7 +5652,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5695,7 +5758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5837,7 +5900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5850,8 +5913,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6158,8 +6221,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,8 +7573,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8655,8 +8718,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9828,8 +9891,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11092,8 +11155,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12434,8 +12497,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13321,8 +13384,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14386,8 +14449,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15239,8 +15302,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15504,8 +15567,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16294,8 +16357,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16815,8 +16878,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17252,14 +17315,148 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27876439-FC24-44E7-A387-B67FB8DD3509}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400CFB48-B2D7-4552-9669-BAB592CD3700}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319C28C-0EEA-4862-95BF-C791938968A5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A23 F1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17309,7 +17506,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
@@ -17713,57 +17910,99 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1">
-        <f>SUM(B2:B21)</f>
-        <v>385</v>
-      </c>
-      <c r="C22" s="1">
-        <f>SUM(C2:C21)</f>
+      <c r="B24" s="1">
+        <f>SUM(B2:B23)</f>
+        <v>386</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM(C2:C23)</f>
         <v>14</v>
       </c>
-      <c r="D22" s="1">
-        <f>SUM(D2:D21)</f>
+      <c r="D24" s="1">
+        <f>SUM(D2:D23)</f>
         <v>673</v>
       </c>
-      <c r="E22" s="1">
-        <f>SUM(E2:E21)</f>
-        <v>361</v>
-      </c>
-      <c r="F22" s="9">
-        <f>(D22-E22)/D22</f>
-        <v>0.46359583952451711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="1">
+        <f>SUM(E2:E23)</f>
+        <v>362</v>
+      </c>
+      <c r="F24" s="9">
+        <f>(D24-E24)/D24</f>
+        <v>0.46210995542347699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="8">
-        <f>AVERAGE(B2:B21)</f>
-        <v>19.25</v>
-      </c>
-      <c r="C23" s="8">
-        <f>AVERAGE(C2:C21)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D23" s="8">
-        <f>AVERAGE(D2:D21)</f>
-        <v>33.65</v>
-      </c>
-      <c r="E23" s="8">
-        <f>AVERAGE(E2:E21)</f>
-        <v>18.05</v>
-      </c>
-      <c r="F23" s="9">
-        <f>(D23-E23)/D23</f>
-        <v>0.46359583952451705</v>
+      <c r="B25" s="8">
+        <f>AVERAGE(B2:B23)</f>
+        <v>17.545454545454547</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C2:C23)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D25" s="8">
+        <f>AVERAGE(D2:D23)</f>
+        <v>30.59090909090909</v>
+      </c>
+      <c r="E25" s="8">
+        <f>AVERAGE(E2:E23)</f>
+        <v>16.454545454545453</v>
+      </c>
+      <c r="F25" s="9">
+        <f>(D25-E25)/D25</f>
+        <v>0.46210995542347699</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -17784,8 +18023,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18391,8 +18630,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19147,8 +19386,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20444,8 +20683,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21511,8 +21750,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22396,8 +22635,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23270,8 +23509,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6402" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCBF2FCB-E383-49C2-A754-42D6F05259E3}"/>
+  <xr:revisionPtr revIDLastSave="6410" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306322E0-3086-41E3-B7A1-9AA6A8036165}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="24" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="974">
   <si>
     <t>YEAR</t>
   </si>
@@ -3524,7 +3524,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,7 +5533,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37C125FC-2400-46CD-A3A4-B6B630A44532}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5612,9 +5612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5652,7 +5652,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5758,7 +5758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5900,7 +5900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15567,8 +15567,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16879,7 +16879,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17386,10 +17386,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17442,6 +17442,26 @@
         <v>742</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -17455,8 +17475,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A23 F1:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17935,7 +17955,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17944,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="5" t="e">
         <f t="shared" si="0"/>
@@ -17957,7 +17977,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -17969,11 +17989,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.46210995542347699</v>
+        <v>0.46062407132243682</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17982,7 +18002,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.545454545454547</v>
+        <v>17.59090909090909</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -17994,11 +18014,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.454545454545453</v>
+        <v>16.5</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.46210995542347699</v>
+        <v>0.46062407132243682</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6410" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306322E0-3086-41E3-B7A1-9AA6A8036165}"/>
+  <xr:revisionPtr revIDLastSave="6435" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140C3B6E-0B43-44FF-B1C9-B8E5DB6D7021}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="976">
   <si>
     <t>YEAR</t>
   </si>
@@ -2981,6 +2981,12 @@
   </si>
   <si>
     <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-3</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3350,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,7 +3530,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,9 +5618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5652,7 +5658,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5758,7 +5764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5900,7 +5906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14449,8 +14455,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15568,7 +15574,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16879,7 +16885,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17386,20 +17392,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17460,6 +17466,68 @@
       </c>
       <c r="F4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>974</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>838</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -17955,20 +18023,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17977,7 +18045,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -17985,15 +18053,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.46062407132243682</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18002,7 +18070,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.59090909090909</v>
+        <v>17.636363636363637</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18010,15 +18078,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>30.59090909090909</v>
+        <v>30.727272727272727</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.5</v>
+        <v>16.545454545454547</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.46062407132243682</v>
+        <v>0.46153846153846151</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6435" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140C3B6E-0B43-44FF-B1C9-B8E5DB6D7021}"/>
+  <xr:revisionPtr revIDLastSave="6442" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98F5A553-BA1C-4AF4-AD8E-3C4C8ECFE807}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="976">
   <si>
     <t>YEAR</t>
   </si>
@@ -3530,7 +3530,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4124,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17392,10 +17392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17528,6 +17528,26 @@
       </c>
       <c r="F9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>845</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -18023,7 +18043,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -18032,11 +18052,11 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18045,7 +18065,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -18057,11 +18077,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.46153846153846156</v>
+        <v>0.46005917159763315</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18070,7 +18090,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.636363636363637</v>
+        <v>17.681818181818183</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18082,11 +18102,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.545454545454547</v>
+        <v>16.59090909090909</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.46153846153846151</v>
+        <v>0.46005917159763315</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6442" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98F5A553-BA1C-4AF4-AD8E-3C4C8ECFE807}"/>
+  <xr:revisionPtr revIDLastSave="6450" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E734510B-C99E-4702-B341-2745F64C0BB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="977">
   <si>
     <t>YEAR</t>
   </si>
@@ -2987,6 +2987,9 @@
   </si>
   <si>
     <t>5-7 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3533,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4127,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>-0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17392,10 +17395,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17548,6 +17551,26 @@
       </c>
       <c r="F11" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>976</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18043,7 +18066,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -18052,11 +18075,11 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18065,7 +18088,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -18077,11 +18100,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.46005917159763315</v>
+        <v>0.45857988165680474</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18090,7 +18113,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.681818181818183</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18102,11 +18125,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.59090909090909</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.46005917159763315</v>
+        <v>0.45857988165680469</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6450" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E734510B-C99E-4702-B341-2745F64C0BB1}"/>
+  <xr:revisionPtr revIDLastSave="6467" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FF5607-3817-4C89-ADAC-6127A3E5D1BA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="978">
   <si>
     <t>YEAR</t>
   </si>
@@ -2990,6 +2990,9 @@
   </si>
   <si>
     <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
   </si>
 </sst>
 </file>
@@ -3353,7 +3356,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,7 +3536,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,7 +4130,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16888,7 +16891,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17395,10 +17398,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E15" activeCellId="1" sqref="E6:E8 E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17406,9 +17409,9 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17571,6 +17574,62 @@
       </c>
       <c r="F13" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>977</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>974</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>945</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -18072,14 +18131,14 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18096,15 +18155,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.45857988165680474</v>
+        <v>0.45949926362297494</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18121,15 +18180,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>30.727272727272727</v>
+        <v>30.863636363636363</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.636363636363637</v>
+        <v>16.681818181818183</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.45857988165680469</v>
+        <v>0.45949926362297489</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6467" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FF5607-3817-4C89-ADAC-6127A3E5D1BA}"/>
+  <xr:revisionPtr revIDLastSave="6474" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE48AE48-7E12-470D-AB2F-F9A622887DE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="979">
   <si>
     <t>YEAR</t>
   </si>
@@ -2993,6 +2993,9 @@
   </si>
   <si>
     <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>Arantxa Rus (NETHERLANDS)</t>
   </si>
 </sst>
 </file>
@@ -3536,7 +3539,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4133,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17398,10 +17401,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="1" sqref="E6:E8 E15:E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17604,7 +17607,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -17630,6 +17633,26 @@
       </c>
       <c r="F18" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" t="s">
+        <v>978</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -18125,7 +18148,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -18134,11 +18157,11 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18147,7 +18170,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -18159,11 +18182,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.45949926362297494</v>
+        <v>0.45802650957290131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18172,7 +18195,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.727272727272727</v>
+        <v>17.772727272727273</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18184,11 +18207,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.681818181818183</v>
+        <v>16.727272727272727</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.45949926362297489</v>
+        <v>0.45802650957290136</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6474" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE48AE48-7E12-470D-AB2F-F9A622887DE7}"/>
+  <xr:revisionPtr revIDLastSave="6490" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161C7A34-2F85-45A9-947C-7EB268F7EC50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="983">
   <si>
     <t>YEAR</t>
   </si>
@@ -2996,6 +2996,18 @@
   </si>
   <si>
     <t>Arantxa Rus (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(4) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3551,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4145,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.16666666666666666</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,10 +5634,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -17401,10 +17409,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17414,7 +17422,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17653,6 +17661,46 @@
       </c>
       <c r="F20" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>979</v>
+      </c>
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>917</v>
+      </c>
+      <c r="B24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>982</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -18148,7 +18196,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -18157,11 +18205,11 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18170,7 +18218,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -18182,11 +18230,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.45802650957290131</v>
+        <v>0.45508100147275404</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18195,7 +18243,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.772727272727273</v>
+        <v>17.863636363636363</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18207,11 +18255,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.727272727272727</v>
+        <v>16.818181818181817</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.45802650957290136</v>
+        <v>0.4550810014727541</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6502" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D3EC69-F6D8-4F2B-967B-B9214EAC4A87}"/>
+  <xr:revisionPtr revIDLastSave="6508" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7F5F03-8FD3-47A3-9E9D-6C9CC3A8491C}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="10" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,6 @@
     <sheet name="2023" sheetId="26" r:id="rId21"/>
     <sheet name="2024" sheetId="27" r:id="rId22"/>
     <sheet name="Stats" sheetId="1" r:id="rId23"/>
-    <sheet name="Wins-Losses" sheetId="28" r:id="rId24"/>
-    <sheet name="Winning Percentile Range" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3378,7 +3376,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4763-4DD7-B1D4-605DC2826C1C}"/>
+              <c16:uniqueId val="{00000000-DDCC-4E85-930D-545AF7E8C891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3558,7 +3556,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4763-4DD7-B1D4-605DC2826C1C}"/>
+              <c16:uniqueId val="{00000001-DDCC-4E85-930D-545AF7E8C891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3865,6 +3863,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4153,7 +4156,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3FD-4199-93E8-6D886E3456B6}"/>
+              <c16:uniqueId val="{00000001-A142-4603-8E2F-304FB2BE6F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4455,6 +4458,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5544,47 +5552,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA2DBEF8-2525-4163-893B-36F37CA7405A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37C125FC-2400-46CD-A3A4-B6B630A44532}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E399D28E-32EE-B206-F4C9-B5F7291EEF1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41A1474-51B6-9AB1-58E6-0822001765C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5597,27 +5589,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BE52BA-7A9C-9EC1-A361-09F3121F4FB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7436A8-CE5B-93C5-00E1-2B1C6B1AE8AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5625,12 +5620,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5936,7 +5931,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6244,7 +6239,7 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7596,7 +7591,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8741,7 +8736,7 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9914,7 +9909,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11178,7 +11173,7 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12520,7 +12515,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13407,7 +13402,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14472,7 +14467,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15325,7 +15320,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15590,7 +15585,7 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16380,7 +16375,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16901,7 +16896,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17344,7 +17339,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17411,7 +17406,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17737,7 +17732,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18294,6 +18289,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18304,7 +18300,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18911,7 +18907,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19667,7 +19663,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20964,7 +20960,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22031,7 +22027,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22916,7 +22912,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23790,7 +23786,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6508" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7F5F03-8FD3-47A3-9E9D-6C9CC3A8491C}"/>
+  <xr:revisionPtr revIDLastSave="6538" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4DB9F42-A910-41AC-ACBE-A53996AD8C9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5141" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="987">
   <si>
     <t>YEAR</t>
   </si>
@@ -2648,9 +2648,6 @@
     <t>4-6 7-5 6-4</t>
   </si>
   <si>
-    <t>Margarita Gasparyan (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-2 5-7 6-4</t>
   </si>
   <si>
@@ -2864,9 +2861,6 @@
     <t>Jil Teichmann (SWITZERLAND)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-1 6-7(4) 7-5</t>
   </si>
   <si>
@@ -3006,6 +3000,24 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Margarita Betova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>OLMYPICS</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-4 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3381,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,7 +3561,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,7 +4160,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.66666666666666663</c:v>
+                  <c:v>-0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5559,13 +5571,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5627,6 +5639,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6275,7 +6291,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -6540,7 +6556,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -6574,7 +6590,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -6822,7 +6838,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -7250,7 +7266,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -7259,7 +7275,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>20</v>
@@ -7774,7 +7790,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -7785,7 +7801,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -7805,7 +7821,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -7825,7 +7841,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -8087,7 +8103,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -8234,7 +8250,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -8327,7 +8343,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -9020,7 +9036,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -9096,7 +9112,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -9116,7 +9132,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -9246,7 +9262,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -9610,7 +9626,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -9653,7 +9669,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>20</v>
@@ -9909,8 +9925,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,7 +9984,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -10016,7 +10032,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -10123,7 +10139,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -10157,7 +10173,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -10177,7 +10193,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -10231,7 +10247,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -10361,7 +10377,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -10400,7 +10416,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -10697,7 +10713,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>20</v>
@@ -10764,7 +10780,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -10889,7 +10905,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>20</v>
@@ -11174,7 +11190,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11452,7 +11468,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -11472,7 +11488,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -11568,7 +11584,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -11720,7 +11736,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -11803,7 +11819,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -11966,7 +11982,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -12417,7 +12433,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
@@ -12515,8 +12531,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12594,7 +12610,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>792</v>
+        <v>982</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -12667,7 +12683,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -12676,7 +12692,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>792</v>
+        <v>982</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -12687,7 +12703,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -12749,7 +12765,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -12983,7 +12999,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -13060,7 +13076,7 @@
         <v>308</v>
       </c>
       <c r="D45" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -13181,7 +13197,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -13224,7 +13240,7 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
@@ -13278,7 +13294,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>792</v>
+        <v>982</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>20</v>
@@ -13402,8 +13418,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13604,7 +13620,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -13652,7 +13668,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -13714,7 +13730,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -13723,7 +13739,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -14095,7 +14111,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>792</v>
+        <v>982</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
@@ -14224,7 +14240,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -14287,7 +14303,7 @@
         <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>863</v>
+        <v>983</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>20</v>
@@ -14307,7 +14323,7 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -14341,7 +14357,7 @@
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -14383,7 +14399,7 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>20</v>
@@ -14403,7 +14419,7 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14437,7 +14453,7 @@
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -14451,7 +14467,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -14467,8 +14483,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14560,7 +14576,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -14574,7 +14590,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -14599,7 +14615,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -14614,7 +14630,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -14628,7 +14644,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -14636,7 +14652,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -14647,7 +14663,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -14656,7 +14672,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -14676,12 +14692,12 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -14704,13 +14720,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -14718,7 +14734,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -14760,7 +14776,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -14780,7 +14796,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -14794,7 +14810,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
@@ -14828,7 +14844,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -14901,7 +14917,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -14944,7 +14960,7 @@
         <v>308</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -14964,13 +14980,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>882</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>883</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15012,7 +15028,7 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15046,7 +15062,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15068,7 +15084,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>20</v>
@@ -15127,7 +15143,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -15136,7 +15152,7 @@
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>792</v>
+        <v>982</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -15162,7 +15178,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15182,12 +15198,12 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -15202,7 +15218,7 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15216,7 +15232,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -15236,7 +15252,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -15270,7 +15286,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15321,7 +15337,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15371,21 +15387,21 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>896</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>897</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -15399,7 +15415,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -15419,7 +15435,7 @@
         <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -15433,7 +15449,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -15467,7 +15483,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15509,7 +15525,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -15523,7 +15539,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -15563,13 +15579,13 @@
         <v>308</v>
       </c>
       <c r="D19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -15585,8 +15601,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15621,7 +15637,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -15644,7 +15660,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -15678,7 +15694,7 @@
         <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -15689,7 +15705,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -15698,7 +15714,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -15723,7 +15739,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -15752,7 +15768,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -15786,7 +15802,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -15811,7 +15827,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -15820,13 +15836,13 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
+        <v>910</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
         <v>911</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -15874,7 +15890,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15902,7 +15918,7 @@
         <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -15913,7 +15929,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B28" t="s">
         <v>318</v>
@@ -15947,7 +15963,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B31" t="s">
         <v>318</v>
@@ -15956,7 +15972,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
@@ -15970,7 +15986,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -15984,7 +16000,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
@@ -16004,7 +16020,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16032,7 +16048,7 @@
         <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
@@ -16046,13 +16062,13 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16060,13 +16076,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16074,7 +16090,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
@@ -16088,7 +16104,7 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -16170,7 +16186,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -16201,13 +16217,13 @@
         <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16215,7 +16231,7 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -16235,7 +16251,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16243,27 +16259,27 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
+        <v>929</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
         <v>930</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>932</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
         <v>933</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>934</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -16274,7 +16290,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -16289,7 +16305,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -16297,7 +16313,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>935</v>
+        <v>981</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -16325,7 +16341,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -16336,24 +16352,24 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>936</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>937</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>938</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>939</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
@@ -16897,7 +16913,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16941,7 +16957,7 @@
         <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -16952,7 +16968,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -16961,7 +16977,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -16972,7 +16988,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -16981,13 +16997,13 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16995,7 +17011,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>935</v>
+        <v>981</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -17009,13 +17025,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17040,13 +17056,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -17057,7 +17073,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -17077,7 +17093,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -17097,7 +17113,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -17117,7 +17133,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -17131,7 +17147,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -17145,13 +17161,13 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17159,13 +17175,13 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17173,18 +17189,18 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -17193,13 +17209,13 @@
         <v>308</v>
       </c>
       <c r="D25" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17207,7 +17223,7 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
@@ -17221,7 +17237,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -17232,7 +17248,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B29" t="s">
         <v>318</v>
@@ -17241,7 +17257,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -17255,7 +17271,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -17289,7 +17305,7 @@
         <v>308</v>
       </c>
       <c r="D33" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
@@ -17303,7 +17319,7 @@
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -17317,7 +17333,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -17375,22 +17391,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -17404,10 +17420,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="E31" activeCellId="10" sqref="E2 E4 E9 E11 E13 E18 E20 E22 E24 E26 E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17417,7 +17433,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17451,7 +17467,7 @@
         <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -17471,7 +17487,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -17482,7 +17498,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -17511,7 +17527,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17519,7 +17535,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -17573,7 +17589,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -17583,11 +17599,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
         <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -17601,7 +17623,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -17615,7 +17637,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -17629,7 +17651,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -17649,7 +17671,7 @@
         <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -17660,7 +17682,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B22" t="s">
         <v>318</v>
@@ -17669,18 +17691,18 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B24" t="s">
         <v>318</v>
@@ -17689,7 +17711,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
@@ -17709,13 +17731,75 @@
         <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>984</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>825</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>985</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>929</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>941</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -17732,7 +17816,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18211,20 +18295,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18233,7 +18317,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -18241,15 +18325,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.45360824742268041</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18258,7 +18342,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>17.90909090909091</v>
+        <v>18</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -18266,15 +18350,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>30.863636363636363</v>
+        <v>31</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>16.863636363636363</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.45360824742268041</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
   </sheetData>
@@ -18336,7 +18420,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -19967,7 +20051,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -20769,7 +20853,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -20996,7 +21080,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -21133,7 +21217,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -21153,7 +21237,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -21173,7 +21257,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -22185,7 +22269,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -23203,7 +23287,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -23537,7 +23621,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -23911,7 +23995,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -23951,7 +24035,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>

--- a/Tennis/WTA Tour/Angelique Kerber.xlsx
+++ b/Tennis/WTA Tour/Angelique Kerber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6538" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4DB9F42-A910-41AC-ACBE-A53996AD8C9F}"/>
+  <xr:revisionPtr revIDLastSave="6541" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B41E4EC1-671A-47EE-B6A5-E007F1C6C533}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -1769,9 +1769,6 @@
     <t>Yanina Wickmayer (BELGIUM)</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>2-6 6-3 6-1</t>
   </si>
   <si>
@@ -2957,9 +2954,6 @@
     <t>AUCKLAND OPEN</t>
   </si>
   <si>
-    <t>QATAR LADIES OPEN</t>
-  </si>
-  <si>
     <t>Paula Badosa (SPAIN)</t>
   </si>
   <si>
@@ -3018,6 +3012,12 @@
   </si>
   <si>
     <t>6-7(4) 6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -5641,10 +5641,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5948,7 +5944,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,7 +6252,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,7 +6287,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -6300,13 +6296,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6334,7 +6330,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -6376,7 +6372,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -6390,7 +6386,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -6404,13 +6400,13 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6420,7 @@
         <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -6452,7 +6448,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -6489,13 +6485,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>610</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6509,7 +6505,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,7 +6513,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -6537,7 +6533,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6551,12 +6547,12 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -6571,7 +6567,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,7 +6586,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -6599,13 +6595,13 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6627,13 +6623,13 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>614</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,7 +6651,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -6675,7 +6671,7 @@
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -6701,7 +6697,7 @@
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6723,13 +6719,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6737,7 +6733,7 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -6768,7 +6764,7 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -6799,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>20</v>
@@ -6827,7 +6823,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -6838,7 +6834,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -6847,7 +6843,7 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -6901,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,13 +6933,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6947,7 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -6971,7 +6967,7 @@
         <v>308</v>
       </c>
       <c r="D58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -6999,13 +6995,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,18 +7023,18 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B64" t="s">
         <v>318</v>
@@ -7053,7 +7049,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,13 +7099,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
+        <v>628</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
         <v>629</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7151,7 +7147,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>20</v>
@@ -7165,7 +7161,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>20</v>
@@ -7185,7 +7181,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,7 +7200,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B77" t="s">
         <v>318</v>
@@ -7219,7 +7215,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7227,7 +7223,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>20</v>
@@ -7247,7 +7243,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7255,7 +7251,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
@@ -7266,7 +7262,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -7275,7 +7271,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>20</v>
@@ -7289,13 +7285,13 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7309,13 +7305,13 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7351,13 +7347,13 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7405,7 +7401,7 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -7427,7 +7423,7 @@
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
@@ -7461,7 +7457,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>20</v>
@@ -7475,7 +7471,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>20</v>
@@ -7509,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>20</v>
@@ -7529,7 +7525,7 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7537,24 +7533,24 @@
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>644</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
         <v>645</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>646</v>
       </c>
       <c r="D105" t="s">
         <v>533</v>
@@ -7568,21 +7564,21 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
+        <v>645</v>
+      </c>
+      <c r="D106" t="s">
+        <v>612</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
         <v>646</v>
-      </c>
-      <c r="D106" t="s">
-        <v>613</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D107" t="s">
         <v>346</v>
@@ -7608,7 +7604,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7643,7 +7639,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -7658,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7666,13 +7662,13 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7680,13 +7676,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>649</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7700,13 +7696,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>656</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7714,7 +7710,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -7734,7 +7730,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7748,7 +7744,7 @@
         <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -7776,13 +7772,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7790,7 +7786,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -7801,7 +7797,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -7810,7 +7806,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -7821,7 +7817,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -7830,7 +7826,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -7841,7 +7837,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -7850,7 +7846,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -7870,7 +7866,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7878,7 +7874,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -7892,7 +7888,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
@@ -7912,7 +7908,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7932,7 +7928,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7940,7 +7936,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -7960,7 +7956,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -7980,7 +7976,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8002,13 +7998,13 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,7 +8012,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
@@ -8039,7 +8035,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8064,7 +8060,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
@@ -8084,7 +8080,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8092,7 +8088,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -8103,7 +8099,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -8112,13 +8108,13 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,13 +8122,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,7 +8136,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
@@ -8174,13 +8170,13 @@
         <v>308</v>
       </c>
       <c r="D46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8188,7 +8184,7 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
@@ -8216,18 +8212,18 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B51" t="s">
         <v>318</v>
@@ -8236,7 +8232,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -8250,7 +8246,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -8290,12 +8286,12 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -8304,7 +8300,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
@@ -8318,13 +8314,13 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8332,18 +8328,18 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -8358,7 +8354,7 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8378,7 +8374,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8392,7 +8388,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8400,7 +8396,7 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -8411,7 +8407,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -8454,13 +8450,13 @@
         <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8482,13 +8478,13 @@
         <v>19</v>
       </c>
       <c r="D72" t="s">
+        <v>686</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
         <v>687</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8502,7 +8498,7 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>20</v>
@@ -8558,13 +8554,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8588,7 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>20</v>
@@ -8632,7 +8628,7 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8640,7 +8636,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>20</v>
@@ -8654,7 +8650,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>20</v>
@@ -8668,7 +8664,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>20</v>
@@ -8688,32 +8684,32 @@
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>644</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
         <v>645</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>646</v>
-      </c>
       <c r="D90" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D91" t="s">
         <v>380</v>
@@ -8727,7 +8723,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D92" t="s">
         <v>346</v>
@@ -8753,7 +8749,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,7 +8784,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -8797,7 +8793,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -8811,13 +8807,13 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8825,13 +8821,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8851,7 +8847,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,7 +8869,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -8887,7 +8883,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -8927,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8963,7 +8959,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -8989,7 +8985,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8997,13 +8993,13 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9031,12 +9027,12 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -9045,7 +9041,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
@@ -9087,13 +9083,13 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9112,7 +9108,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -9127,12 +9123,12 @@
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -9141,13 +9137,13 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9167,7 +9163,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9195,7 +9191,7 @@
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9220,18 +9216,18 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
@@ -9251,7 +9247,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -9262,7 +9258,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -9271,13 +9267,13 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
+        <v>710</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
         <v>711</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9297,12 +9293,12 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -9311,7 +9307,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
@@ -9325,13 +9321,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9339,13 +9335,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9379,7 +9375,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9401,7 +9397,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -9412,7 +9408,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B56" t="s">
         <v>318</v>
@@ -9427,7 +9423,7 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9435,13 +9431,13 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,7 +9465,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9477,13 +9473,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,7 +9493,7 @@
         <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -9511,13 +9507,13 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9531,7 +9527,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9539,13 +9535,13 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9553,7 +9549,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -9573,13 +9569,13 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9583,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>20</v>
@@ -9607,7 +9603,7 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9621,12 +9617,12 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -9635,7 +9631,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>20</v>
@@ -9669,7 +9665,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>20</v>
@@ -9709,7 +9705,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9731,7 +9727,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
@@ -9751,7 +9747,7 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>20</v>
@@ -9790,16 +9786,16 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>729</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
         <v>730</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>731</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>20</v>
@@ -9827,7 +9823,7 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
@@ -9847,7 +9843,7 @@
         <v>61</v>
       </c>
       <c r="D91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>20</v>
@@ -9861,7 +9857,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>20</v>
@@ -9875,13 +9871,13 @@
         <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9892,18 +9888,18 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
@@ -9926,7 +9922,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9961,7 +9957,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -9970,7 +9966,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -9984,7 +9980,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -9998,13 +9994,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10018,13 +10014,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10032,13 +10028,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10046,13 +10042,13 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10060,7 +10056,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -10080,13 +10076,13 @@
         <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10097,7 +10093,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -10119,7 +10115,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -10139,7 +10135,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -10148,13 +10144,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10162,18 +10158,18 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -10182,7 +10178,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -10193,7 +10189,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -10202,13 +10198,13 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10222,7 +10218,7 @@
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
@@ -10236,7 +10232,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -10247,7 +10243,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -10270,7 +10266,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -10284,13 +10280,13 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10312,7 +10308,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -10329,7 +10325,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -10349,13 +10345,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10363,13 +10359,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10377,7 +10373,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -10391,7 +10387,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
@@ -10411,12 +10407,12 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -10425,7 +10421,7 @@
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -10445,7 +10441,7 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>20</v>
@@ -10459,7 +10455,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -10470,7 +10466,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -10479,7 +10475,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
@@ -10521,10 +10517,10 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F50" t="s">
         <v>211</v>
@@ -10541,7 +10537,7 @@
         <v>308</v>
       </c>
       <c r="D52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
@@ -10555,7 +10551,7 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
@@ -10569,13 +10565,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10595,7 +10591,7 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10603,7 +10599,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
@@ -10617,7 +10613,7 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -10645,13 +10641,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10665,7 +10661,7 @@
         <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -10679,7 +10675,7 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
@@ -10693,13 +10689,13 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10713,7 +10709,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>20</v>
@@ -10727,7 +10723,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
@@ -10747,7 +10743,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10755,7 +10751,7 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>20</v>
@@ -10769,18 +10765,18 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -10803,7 +10799,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>20</v>
@@ -10823,7 +10819,7 @@
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10837,7 +10833,7 @@
         <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -10885,13 +10881,13 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10905,7 +10901,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>20</v>
@@ -10919,13 +10915,13 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10944,7 +10940,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -10953,13 +10949,13 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -10967,7 +10963,7 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>20</v>
@@ -10981,13 +10977,13 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -10995,7 +10991,7 @@
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
@@ -11054,7 +11050,7 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -11069,7 +11065,7 @@
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -11077,7 +11073,7 @@
         <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>20</v>
@@ -11091,7 +11087,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>20</v>
@@ -11105,7 +11101,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>20</v>
@@ -11119,27 +11115,27 @@
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>644</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
         <v>645</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>646</v>
-      </c>
       <c r="D101" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
@@ -11150,24 +11146,24 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D102" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D103" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
@@ -11190,7 +11186,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11225,7 +11221,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -11234,13 +11230,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11248,7 +11244,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -11262,7 +11258,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -11276,7 +11272,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -11290,7 +11286,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -11310,13 +11306,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11327,7 +11323,7 @@
         <v>382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F9" t="s">
         <v>211</v>
@@ -11351,7 +11347,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11373,7 +11369,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -11387,7 +11383,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -11401,7 +11397,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -11415,7 +11411,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -11446,7 +11442,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -11468,7 +11464,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -11477,7 +11473,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -11488,7 +11484,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -11497,13 +11493,13 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11531,13 +11527,13 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11545,13 +11541,13 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11559,7 +11555,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -11573,18 +11569,18 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -11593,13 +11589,13 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11621,7 +11617,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -11635,13 +11631,13 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11663,7 +11659,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -11683,13 +11679,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11697,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -11711,13 +11707,13 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11725,7 +11721,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>20</v>
@@ -11736,7 +11732,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -11765,13 +11761,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11785,13 +11781,13 @@
         <v>308</v>
       </c>
       <c r="D49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11811,7 +11807,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -11819,13 +11815,13 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11833,13 +11829,13 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,7 +11855,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -11881,13 +11877,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -11915,7 +11911,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11957,13 +11953,13 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11971,10 +11967,10 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F64" t="s">
         <v>211</v>
@@ -11982,7 +11978,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -11997,7 +11993,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -12005,13 +12001,13 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -12019,7 +12015,7 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>20</v>
@@ -12039,12 +12035,12 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -12053,7 +12049,7 @@
         <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>20</v>
@@ -12067,7 +12063,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>20</v>
@@ -12081,13 +12077,13 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -12095,7 +12091,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>20</v>
@@ -12109,7 +12105,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>20</v>
@@ -12123,13 +12119,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12143,13 +12139,13 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -12163,7 +12159,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -12171,13 +12167,13 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -12199,7 +12195,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -12225,7 +12221,7 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -12239,7 +12235,7 @@
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -12247,7 +12243,7 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>20</v>
@@ -12261,7 +12257,7 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>20</v>
@@ -12275,13 +12271,13 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -12303,7 +12299,7 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>20</v>
@@ -12314,7 +12310,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -12323,13 +12319,13 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -12337,13 +12333,13 @@
         <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12357,7 +12353,7 @@
         <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>20</v>
@@ -12385,7 +12381,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
@@ -12396,7 +12392,7 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -12405,7 +12401,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>20</v>
@@ -12419,7 +12415,7 @@
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>20</v>
@@ -12433,7 +12429,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
@@ -12444,16 +12440,16 @@
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>644</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
         <v>645</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>646</v>
-      </c>
       <c r="D103" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>20</v>
@@ -12464,7 +12460,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D104" t="s">
         <v>499</v>
@@ -12478,7 +12474,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D105" t="s">
         <v>381</v>
@@ -12487,7 +12483,7 @@
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -12501,7 +12497,7 @@
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -12531,8 +12527,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12567,7 +12563,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -12576,13 +12572,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>804</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12590,7 +12586,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -12610,13 +12606,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12630,7 +12626,7 @@
         <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -12644,13 +12640,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12658,7 +12654,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -12672,7 +12668,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -12683,7 +12679,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -12692,18 +12688,18 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -12712,7 +12708,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -12726,7 +12722,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -12740,7 +12736,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -12754,7 +12750,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -12765,7 +12761,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -12794,7 +12790,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12822,13 +12818,13 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12836,7 +12832,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -12850,7 +12846,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
@@ -12890,7 +12886,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12898,7 +12894,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -12912,7 +12908,7 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -12926,7 +12922,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
@@ -12940,13 +12936,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12957,7 +12953,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -12968,7 +12964,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -12988,18 +12984,18 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -13008,13 +13004,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13022,7 +13018,7 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
@@ -13036,13 +13032,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,7 +13052,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -13076,7 +13072,7 @@
         <v>308</v>
       </c>
       <c r="D45" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -13087,7 +13083,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B47" t="s">
         <v>318</v>
@@ -13096,13 +13092,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13110,7 +13106,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -13124,7 +13120,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -13144,7 +13140,7 @@
         <v>308</v>
       </c>
       <c r="D51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -13164,7 +13160,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13172,13 +13168,13 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13186,18 +13182,18 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -13206,7 +13202,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>20</v>
@@ -13220,7 +13216,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -13240,13 +13236,13 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13260,7 +13256,7 @@
         <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -13280,7 +13276,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
@@ -13294,13 +13290,13 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13308,13 +13304,13 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13322,18 +13318,18 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -13342,7 +13338,7 @@
         <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -13353,7 +13349,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -13362,7 +13358,7 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
@@ -13373,16 +13369,16 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D72" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
@@ -13393,16 +13389,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D73" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -13419,7 +13415,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13463,13 +13459,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13483,7 +13479,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13505,7 +13501,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -13519,7 +13515,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -13539,7 +13535,7 @@
         <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -13553,7 +13549,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -13567,7 +13563,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -13581,13 +13577,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13595,7 +13591,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -13615,12 +13611,12 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -13629,7 +13625,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -13643,13 +13639,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -13657,18 +13653,18 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -13691,7 +13687,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -13705,7 +13701,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -13719,7 +13715,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -13730,7 +13726,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -13739,13 +13735,13 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13759,7 +13755,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13767,7 +13763,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
@@ -13781,7 +13777,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -13801,7 +13797,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -13815,7 +13811,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -13829,13 +13825,13 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
+        <v>841</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>842</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -13843,7 +13839,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
@@ -13860,7 +13856,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -13871,7 +13867,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -13891,7 +13887,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
@@ -13905,13 +13901,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13925,13 +13921,13 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13939,13 +13935,13 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13953,7 +13949,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
@@ -13967,7 +13963,7 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -13987,7 +13983,7 @@
         <v>308</v>
       </c>
       <c r="D45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>20</v>
@@ -14001,7 +13997,7 @@
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
@@ -14015,13 +14011,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -14029,7 +14025,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -14049,12 +14045,12 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B51" t="s">
         <v>318</v>
@@ -14069,12 +14065,12 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B53" t="s">
         <v>318</v>
@@ -14097,7 +14093,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>20</v>
@@ -14111,13 +14107,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -14131,7 +14127,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14145,7 +14141,7 @@
         <v>308</v>
       </c>
       <c r="D58" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -14159,13 +14155,13 @@
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -14173,7 +14169,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>20</v>
@@ -14187,7 +14183,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>20</v>
@@ -14201,7 +14197,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -14215,7 +14211,7 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
@@ -14240,7 +14236,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -14249,7 +14245,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -14269,13 +14265,13 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14283,13 +14279,13 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14303,13 +14299,13 @@
         <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -14317,13 +14313,13 @@
         <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -14337,12 +14333,12 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -14351,13 +14347,13 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -14365,7 +14361,7 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -14385,7 +14381,7 @@
         <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>20</v>
@@ -14399,7 +14395,7 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>20</v>
@@ -14413,27 +14409,27 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
         <v>645</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>646</v>
-      </c>
       <c r="D82" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -14444,30 +14440,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D83" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D84" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -14484,7 +14480,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14528,13 +14524,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14542,7 +14538,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -14576,7 +14572,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -14590,7 +14586,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -14604,7 +14600,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -14615,7 +14611,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -14624,13 +14620,13 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -14644,7 +14640,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -14652,18 +14648,18 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -14672,7 +14668,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -14686,18 +14682,18 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -14720,13 +14716,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -14734,13 +14730,13 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -14754,7 +14750,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -14762,7 +14758,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -14776,7 +14772,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -14796,13 +14792,13 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -14810,13 +14806,13 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14844,7 +14840,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -14872,13 +14868,13 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14906,7 +14902,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -14917,7 +14913,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -14926,7 +14922,7 @@
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -14943,7 +14939,7 @@
         <v>392</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F36" t="s">
         <v>211</v>
@@ -14960,7 +14956,7 @@
         <v>308</v>
       </c>
       <c r="D38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -14971,7 +14967,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B40" t="s">
         <v>318</v>
@@ -14980,13 +14976,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>881</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>882</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -14994,7 +14990,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -15008,7 +15004,7 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
@@ -15022,18 +15018,18 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B45" t="s">
         <v>318</v>
@@ -15042,7 +15038,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>20</v>
@@ -15056,13 +15052,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15084,7 +15080,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>20</v>
@@ -15098,7 +15094,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -15132,18 +15128,18 @@
         <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -15152,7 +15148,7 @@
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -15172,13 +15168,13 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15192,18 +15188,18 @@
         <v>308</v>
       </c>
       <c r="D58" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -15218,7 +15214,7 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15232,7 +15228,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>20</v>
@@ -15246,13 +15242,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -15260,7 +15256,7 @@
         <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -15271,7 +15267,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -15280,13 +15276,13 @@
         <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15300,7 +15296,7 @@
         <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>20</v>
@@ -15337,7 +15333,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15372,7 +15368,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -15381,27 +15377,27 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>895</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>896</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -15415,13 +15411,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15435,7 +15431,7 @@
         <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -15449,7 +15445,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -15463,7 +15459,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -15477,13 +15473,13 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15497,7 +15493,7 @@
         <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -15511,7 +15507,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -15525,7 +15521,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -15539,7 +15535,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -15559,7 +15555,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -15579,13 +15575,13 @@
         <v>308</v>
       </c>
       <c r="D19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -15602,7 +15598,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15637,7 +15633,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -15646,13 +15642,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15660,7 +15656,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -15674,7 +15670,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -15694,7 +15690,7 @@
         <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -15705,7 +15701,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -15714,7 +15710,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -15728,7 +15724,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -15739,7 +15735,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -15748,13 +15744,13 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15768,7 +15764,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -15782,7 +15778,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -15802,7 +15798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -15816,7 +15812,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -15827,7 +15823,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -15836,13 +15832,13 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
+        <v>909</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
         <v>910</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -15850,7 +15846,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -15870,13 +15866,13 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15890,7 +15886,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15898,13 +15894,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15918,7 +15914,7 @@
         <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -15929,7 +15925,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B28" t="s">
         <v>318</v>
@@ -15952,7 +15948,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
@@ -15963,7 +15959,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B31" t="s">
         <v>318</v>
@@ -15972,7 +15968,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
@@ -15986,7 +15982,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -16000,7 +15996,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
@@ -16014,13 +16010,13 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16028,7 +16024,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -16048,7 +16044,7 @@
         <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
@@ -16062,13 +16058,13 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16076,13 +16072,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16090,7 +16086,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>20</v>
@@ -16104,7 +16100,7 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
@@ -16118,7 +16114,7 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -16138,7 +16134,7 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>20</v>
@@ -16152,13 +16148,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16166,13 +16162,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -16180,13 +16176,13 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -16194,13 +16190,13 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16217,13 +16213,13 @@
         <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16231,7 +16227,7 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>20</v>
@@ -16245,13 +16241,13 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16259,27 +16255,27 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
+        <v>928</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
         <v>929</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>931</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
         <v>932</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>933</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -16290,7 +16286,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -16299,13 +16295,13 @@
         <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -16313,7 +16309,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>20</v>
@@ -16327,7 +16323,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>20</v>
@@ -16341,7 +16337,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -16352,30 +16348,30 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>935</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
         <v>936</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>937</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -16392,7 +16388,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16913,12 +16909,12 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -16957,7 +16953,7 @@
         <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -16968,7 +16964,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -16977,18 +16973,18 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -16997,13 +16993,13 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17011,7 +17007,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -17025,13 +17021,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>941</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>942</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17045,7 +17041,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -17056,24 +17052,24 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -17093,7 +17089,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -17113,7 +17109,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -17124,7 +17120,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>570</v>
+        <v>985</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -17133,7 +17129,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -17147,13 +17143,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17161,13 +17157,13 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
+        <v>948</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>949</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17175,13 +17171,13 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17189,18 +17185,18 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -17209,13 +17205,13 @@
         <v>308</v>
       </c>
       <c r="D25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17223,7 +17219,7 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
@@ -17237,7 +17233,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -17248,7 +17244,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B29" t="s">
         <v>318</v>
@@ -17257,7 +17253,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -17271,7 +17267,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -17285,13 +17281,13 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17305,13 +17301,13 @@
         <v>308</v>
       </c>
       <c r="D33" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -17319,7 +17315,7 @@
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>20</v>
@@ -17333,7 +17329,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -17356,7 +17352,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17391,22 +17387,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -17422,8 +17418,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" activeCellId="10" sqref="E2 E4 E9 E11 E13 E18 E20 E22 E24 E26 E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17467,13 +17463,13 @@
         <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17487,7 +17483,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -17498,7 +17494,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -17521,13 +17517,13 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17535,7 +17531,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -17549,7 +17545,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -17569,7 +17565,7 @@
         <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -17589,7 +17585,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -17609,7 +17605,7 @@
         <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -17623,7 +17619,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -17637,7 +17633,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -17651,7 +17647,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -17671,7 +17667,7 @@
         <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -17682,7 +17678,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B22" t="s">
         <v>318</v>
@@ -17691,18 +17687,18 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B24" t="s">
         <v>318</v>
@@ -17711,7 +17707,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
@@ -17731,7 +17727,7 @@
         <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -17742,7 +17738,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -17751,7 +17747,7 @@
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -17765,7 +17761,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -17779,7 +17775,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -17793,13 +17789,13 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -17815,8 +17811,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18385,7 +18381,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18420,7 +18416,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -18992,7 +18988,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19748,7 +19744,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20051,7 +20047,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -20853,7 +20849,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -21045,7 +21041,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21080,7 +21076,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -21217,7 +21213,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -21237,7 +21233,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -21257,7 +21253,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -22112,7 +22108,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22269,7 +22265,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -22997,7 +22993,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23287,7 +23283,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -23621,7 +23617,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -23871,12 +23867,12 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -23995,7 +23991,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -24035,7 +24031,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -24253,7 +24249,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>570</v>
+        <v>985</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -24288,7 +24284,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24302,7 +24298,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>20</v>
@@ -24342,7 +24338,7 @@
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24356,7 +24352,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>20</v>
@@ -24370,7 +24366,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -24381,7 +24377,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -24390,7 +24386,7 @@
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>20</v>
@@ -24404,7 +24400,7 @@
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>20</v>
@@ -24424,7 +24420,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -24432,7 +24428,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -24446,7 +24442,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>20</v>
@@ -24466,7 +24462,7 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24480,13 +24476,13 @@
         <v>308</v>
       </c>
       <c r="D52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -24500,7 +24496,7 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -24536,13 +24532,13 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -24550,13 +24546,13 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
+        <v>582</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
         <v>583</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24584,7 +24580,7 @@
         <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>20</v>
@@ -24618,7 +24614,7 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24638,7 +24634,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -24652,27 +24648,27 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>592</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
         <v>593</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>594</v>
-      </c>
       <c r="E67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -24714,7 +24710,7 @@
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24728,13 +24724,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
         <v>597</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
